--- a/MyPuzzleGame/Assets/Data/Game/XLSX/Data.xlsx
+++ b/MyPuzzleGame/Assets/Data/Game/XLSX/Data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paper\Documents\Git\MyPuzzleGame\MyPuzzleGame\Assets\Data\Game\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6316B414-0128-4C9A-AC73-F886B40FDB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48177F7-5A21-4E60-B56C-EAFD68CD8608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA5B9B71-804F-4B4B-8846-9A114271809A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FA5B9B71-804F-4B4B-8846-9A114271809A}"/>
   </bookViews>
   <sheets>
     <sheet name="EffectData" sheetId="1" r:id="rId1"/>
+    <sheet name="DialogueData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>ID(int)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,6 +50,26 @@
   </si>
   <si>
     <t>PuzzlePieceDestroyFX</t>
+  </si>
+  <si>
+    <t>Dialogue(string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕. 난 너의 모험을 도와줄 안내자라고 해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Color(float[])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼굴을 보면서 대화를 나누고 싶지만 이곳은 텍스트 밖에 없는 슬픈 곳이라고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -423,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172F321F-190C-4DD5-831D-14B5593734E2}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -460,4 +481,58 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691779DA-418B-47D2-9AE3-179A867462E4}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="72" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/MyPuzzleGame/Assets/Data/Game/XLSX/Data.xlsx
+++ b/MyPuzzleGame/Assets/Data/Game/XLSX/Data.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paper\Documents\Git\MyPuzzleGame\MyPuzzleGame\Assets\Data\Game\XLSX\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48177F7-5A21-4E60-B56C-EAFD68CD8608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FA5B9B71-804F-4B4B-8846-9A114271809A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EffectData" sheetId="1" r:id="rId1"/>
     <sheet name="DialogueData" sheetId="2" r:id="rId2"/>
+    <sheet name="StageData" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>ID(int)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>안녕. 난 너의 모험을 도와줄 안내자라고 해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Color(float[])</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -68,15 +59,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>얼굴을 보면서 대화를 나누고 싶지만 이곳은 텍스트 밖에 없는 슬픈 곳이라고</t>
+    <t>1,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 일단 바로 모험을 떠나볼까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartDailogueList(int[])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난 너의 모험을 도와줄 안내자라고 해.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금은 아직 이른 것 같아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼굴을 보면서 대화를 나누고 싶지만. . .</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,7 +211,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -240,7 +263,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -434,27 +457,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172F321F-190C-4DD5-831D-14B5593734E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,7 +488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -484,20 +507,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691779DA-418B-47D2-9AE3-179A867462E4}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="72" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,28 +528,61 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -535,4 +591,39 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="21.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>